--- a/QUESTION_4/Q4.xlsx
+++ b/QUESTION_4/Q4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAM\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAM\Documents\GitHub\SQL-Project\QUESTION_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC6EDB2-1B03-4DDC-B766-BAA8491BC2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BA9D3D-3A09-4617-827C-08276848142D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E4814671-8A73-4E2F-9B23-C39381B04B1C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="20">
   <si>
     <t>Year</t>
   </si>
@@ -59,13 +59,49 @@
   <si>
     <t>FullDate</t>
   </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-409]mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -128,9 +164,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -297,118 +333,118 @@
                 <c:formatCode>[$-409]mmm\-yy;@</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
+                  <c:v>37104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37226</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>37073</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>37104</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>37196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37165</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>37135</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>37165</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>37196</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>37226</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>37347</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37469</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37591</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37288</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>37257</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>37288</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
+                  <c:v>37438</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37408</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>37316</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>37347</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>37377</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>37408</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>37438</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>37469</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
+                  <c:v>37561</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37530</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>37500</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>37530</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>37561</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>37591</c:v>
-                </c:pt>
                 <c:pt idx="18">
+                  <c:v>37712</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37834</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37956</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37653</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>37622</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>37653</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
+                  <c:v>37803</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37773</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>37681</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>37712</c:v>
-                </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="26">
                   <c:v>37742</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>37773</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>37803</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>37834</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
+                  <c:v>37926</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37895</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>37865</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>37895</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>37926</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>37956</c:v>
-                </c:pt>
                 <c:pt idx="30">
+                  <c:v>38078</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38018</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>37987</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>38018</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>38047</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>38078</c:v>
-                </c:pt>
                 <c:pt idx="34">
-                  <c:v>38108</c:v>
+                  <c:v>38169</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>38139</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>38169</c:v>
+                  <c:v>38047</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38200</c:v>
+                  <c:v>38108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -582,118 +618,118 @@
                 <c:formatCode>[$-409]mmm\-yy;@</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
+                  <c:v>37104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37226</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>37073</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>37104</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>37196</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37165</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>37135</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>37165</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>37196</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>37226</c:v>
-                </c:pt>
                 <c:pt idx="6">
+                  <c:v>37347</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37469</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37591</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37288</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>37257</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>37288</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
+                  <c:v>37438</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37408</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>37316</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>37347</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="14">
                   <c:v>37377</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>37408</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>37438</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>37469</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
+                  <c:v>37561</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37530</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>37500</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>37530</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>37561</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>37591</c:v>
-                </c:pt>
                 <c:pt idx="18">
+                  <c:v>37712</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37834</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37956</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37653</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>37622</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>37653</c:v>
-                </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
+                  <c:v>37803</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37773</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>37681</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>37712</c:v>
-                </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="26">
                   <c:v>37742</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>37773</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>37803</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>37834</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
+                  <c:v>37926</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37895</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>37865</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>37895</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>37926</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>37956</c:v>
-                </c:pt>
                 <c:pt idx="30">
+                  <c:v>38078</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38018</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>37987</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>38018</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>38047</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>38078</c:v>
-                </c:pt>
                 <c:pt idx="34">
-                  <c:v>38108</c:v>
+                  <c:v>38169</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>38139</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>38169</c:v>
+                  <c:v>38047</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>38200</c:v>
+                  <c:v>38108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -829,7 +865,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -866,7 +901,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1915,7 +1950,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1924,7 +1959,7 @@
     <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" style="6" customWidth="1"/>
     <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1956,11 +1991,11 @@
       <c r="A2" s="1">
         <v>2001</v>
       </c>
-      <c r="B2" s="1">
-        <v>7</v>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C2" s="5">
-        <v>37073</v>
+        <v>37104</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -1979,11 +2014,11 @@
       <c r="A3" s="1">
         <v>2001</v>
       </c>
-      <c r="B3" s="1">
-        <v>8</v>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C3" s="5">
-        <v>37104</v>
+        <v>37226</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>4</v>
@@ -2002,11 +2037,11 @@
       <c r="A4" s="1">
         <v>2001</v>
       </c>
-      <c r="B4" s="1">
-        <v>9</v>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="5">
-        <v>37135</v>
+        <v>37073</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -2025,11 +2060,11 @@
       <c r="A5" s="1">
         <v>2001</v>
       </c>
-      <c r="B5" s="1">
-        <v>10</v>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="5">
-        <v>37165</v>
+        <v>37196</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>4</v>
@@ -2048,11 +2083,11 @@
       <c r="A6" s="1">
         <v>2001</v>
       </c>
-      <c r="B6" s="1">
-        <v>11</v>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C6" s="5">
-        <v>37196</v>
+        <v>37165</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>4</v>
@@ -2071,11 +2106,11 @@
       <c r="A7" s="1">
         <v>2001</v>
       </c>
-      <c r="B7" s="1">
-        <v>12</v>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C7" s="5">
-        <v>37226</v>
+        <v>37135</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>4</v>
@@ -2094,11 +2129,11 @@
       <c r="A8" s="1">
         <v>2002</v>
       </c>
-      <c r="B8" s="1">
-        <v>1</v>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C8" s="5">
-        <v>37257</v>
+        <v>37347</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>4</v>
@@ -2117,11 +2152,11 @@
       <c r="A9" s="1">
         <v>2002</v>
       </c>
-      <c r="B9" s="1">
-        <v>2</v>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C9" s="5">
-        <v>37288</v>
+        <v>37469</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>4</v>
@@ -2140,11 +2175,11 @@
       <c r="A10" s="1">
         <v>2002</v>
       </c>
-      <c r="B10" s="1">
-        <v>3</v>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C10" s="5">
-        <v>37316</v>
+        <v>37591</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>4</v>
@@ -2163,11 +2198,11 @@
       <c r="A11" s="1">
         <v>2002</v>
       </c>
-      <c r="B11" s="1">
-        <v>4</v>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C11" s="5">
-        <v>37347</v>
+        <v>37288</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>4</v>
@@ -2186,11 +2221,11 @@
       <c r="A12" s="1">
         <v>2002</v>
       </c>
-      <c r="B12" s="1">
-        <v>5</v>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C12" s="5">
-        <v>37377</v>
+        <v>37257</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>4</v>
@@ -2209,11 +2244,11 @@
       <c r="A13" s="1">
         <v>2002</v>
       </c>
-      <c r="B13" s="1">
-        <v>6</v>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C13" s="5">
-        <v>37408</v>
+        <v>37438</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>4</v>
@@ -2232,11 +2267,11 @@
       <c r="A14" s="1">
         <v>2002</v>
       </c>
-      <c r="B14" s="1">
-        <v>7</v>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C14" s="5">
-        <v>37438</v>
+        <v>37408</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>4</v>
@@ -2255,11 +2290,11 @@
       <c r="A15" s="1">
         <v>2002</v>
       </c>
-      <c r="B15" s="1">
-        <v>8</v>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C15" s="5">
-        <v>37469</v>
+        <v>37316</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>4</v>
@@ -2278,11 +2313,11 @@
       <c r="A16" s="1">
         <v>2002</v>
       </c>
-      <c r="B16" s="1">
-        <v>9</v>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C16" s="5">
-        <v>37500</v>
+        <v>37377</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>4</v>
@@ -2301,11 +2336,11 @@
       <c r="A17" s="1">
         <v>2002</v>
       </c>
-      <c r="B17" s="1">
-        <v>10</v>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C17" s="5">
-        <v>37530</v>
+        <v>37561</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>4</v>
@@ -2324,11 +2359,11 @@
       <c r="A18" s="1">
         <v>2002</v>
       </c>
-      <c r="B18" s="1">
-        <v>11</v>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C18" s="5">
-        <v>37561</v>
+        <v>37530</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>4</v>
@@ -2347,11 +2382,11 @@
       <c r="A19" s="1">
         <v>2002</v>
       </c>
-      <c r="B19" s="1">
-        <v>12</v>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C19" s="5">
-        <v>37591</v>
+        <v>37500</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>4</v>
@@ -2370,11 +2405,11 @@
       <c r="A20" s="1">
         <v>2003</v>
       </c>
-      <c r="B20" s="1">
-        <v>1</v>
+      <c r="B20" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C20" s="5">
-        <v>37622</v>
+        <v>37712</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>4</v>
@@ -2393,11 +2428,11 @@
       <c r="A21" s="1">
         <v>2003</v>
       </c>
-      <c r="B21" s="1">
-        <v>2</v>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C21" s="5">
-        <v>37653</v>
+        <v>37834</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>4</v>
@@ -2416,11 +2451,11 @@
       <c r="A22" s="1">
         <v>2003</v>
       </c>
-      <c r="B22" s="1">
-        <v>3</v>
+      <c r="B22" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C22" s="5">
-        <v>37681</v>
+        <v>37956</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>4</v>
@@ -2439,11 +2474,11 @@
       <c r="A23" s="1">
         <v>2003</v>
       </c>
-      <c r="B23" s="1">
-        <v>4</v>
+      <c r="B23" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C23" s="5">
-        <v>37712</v>
+        <v>37653</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>4</v>
@@ -2462,11 +2497,11 @@
       <c r="A24" s="1">
         <v>2003</v>
       </c>
-      <c r="B24" s="1">
-        <v>5</v>
+      <c r="B24" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C24" s="5">
-        <v>37742</v>
+        <v>37622</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>4</v>
@@ -2485,11 +2520,11 @@
       <c r="A25" s="1">
         <v>2003</v>
       </c>
-      <c r="B25" s="1">
-        <v>6</v>
+      <c r="B25" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C25" s="5">
-        <v>37773</v>
+        <v>37803</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>4</v>
@@ -2508,11 +2543,11 @@
       <c r="A26" s="1">
         <v>2003</v>
       </c>
-      <c r="B26" s="1">
-        <v>7</v>
+      <c r="B26" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C26" s="5">
-        <v>37803</v>
+        <v>37773</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>4</v>
@@ -2531,11 +2566,11 @@
       <c r="A27" s="1">
         <v>2003</v>
       </c>
-      <c r="B27" s="1">
-        <v>8</v>
+      <c r="B27" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C27" s="5">
-        <v>37834</v>
+        <v>37681</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>4</v>
@@ -2554,11 +2589,11 @@
       <c r="A28" s="1">
         <v>2003</v>
       </c>
-      <c r="B28" s="1">
-        <v>9</v>
+      <c r="B28" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C28" s="5">
-        <v>37865</v>
+        <v>37742</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>4</v>
@@ -2577,11 +2612,11 @@
       <c r="A29" s="1">
         <v>2003</v>
       </c>
-      <c r="B29" s="1">
-        <v>10</v>
+      <c r="B29" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C29" s="5">
-        <v>37895</v>
+        <v>37926</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>4</v>
@@ -2600,11 +2635,11 @@
       <c r="A30" s="1">
         <v>2003</v>
       </c>
-      <c r="B30" s="1">
-        <v>11</v>
+      <c r="B30" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C30" s="5">
-        <v>37926</v>
+        <v>37895</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>4</v>
@@ -2623,11 +2658,11 @@
       <c r="A31" s="1">
         <v>2003</v>
       </c>
-      <c r="B31" s="1">
-        <v>12</v>
+      <c r="B31" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C31" s="5">
-        <v>37956</v>
+        <v>37865</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>4</v>
@@ -2646,11 +2681,11 @@
       <c r="A32" s="1">
         <v>2004</v>
       </c>
-      <c r="B32" s="1">
-        <v>1</v>
+      <c r="B32" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C32" s="5">
-        <v>37987</v>
+        <v>38078</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>4</v>
@@ -2669,11 +2704,11 @@
       <c r="A33" s="1">
         <v>2004</v>
       </c>
-      <c r="B33" s="1">
-        <v>2</v>
+      <c r="B33" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C33" s="5">
-        <v>38018</v>
+        <v>38200</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>4</v>
@@ -2692,11 +2727,11 @@
       <c r="A34" s="1">
         <v>2004</v>
       </c>
-      <c r="B34" s="1">
-        <v>3</v>
+      <c r="B34" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C34" s="5">
-        <v>38047</v>
+        <v>38018</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>4</v>
@@ -2715,11 +2750,11 @@
       <c r="A35" s="1">
         <v>2004</v>
       </c>
-      <c r="B35" s="1">
-        <v>4</v>
+      <c r="B35" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C35" s="5">
-        <v>38078</v>
+        <v>37987</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>4</v>
@@ -2738,11 +2773,11 @@
       <c r="A36" s="1">
         <v>2004</v>
       </c>
-      <c r="B36" s="1">
-        <v>5</v>
+      <c r="B36" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C36" s="5">
-        <v>38108</v>
+        <v>38169</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>4</v>
@@ -2761,8 +2796,8 @@
       <c r="A37" s="1">
         <v>2004</v>
       </c>
-      <c r="B37" s="1">
-        <v>6</v>
+      <c r="B37" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C37" s="5">
         <v>38139</v>
@@ -2784,11 +2819,11 @@
       <c r="A38" s="1">
         <v>2004</v>
       </c>
-      <c r="B38" s="1">
-        <v>7</v>
+      <c r="B38" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C38" s="5">
-        <v>38169</v>
+        <v>38047</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>4</v>
@@ -2807,11 +2842,11 @@
       <c r="A39" s="1">
         <v>2004</v>
       </c>
-      <c r="B39" s="1">
-        <v>8</v>
+      <c r="B39" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C39" s="5">
-        <v>38200</v>
+        <v>38108</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>4</v>
